--- a/individual_case_outputs/avey/3.xlsx
+++ b/individual_case_outputs/avey/3.xlsx
@@ -862,7 +862,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>aortic dissection</t>
+          <t>aortic regurgitation</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
